--- a/natmiOut/YoungD4/LR-pairs_lrc2p/Fgf2-Cd44.xlsx
+++ b/natmiOut/YoungD4/LR-pairs_lrc2p/Fgf2-Cd44.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="27">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -76,6 +76,9 @@
     <t>Edge total expression derived specificity</t>
   </si>
   <si>
+    <t>ECs</t>
+  </si>
+  <si>
     <t>FAPs</t>
   </si>
   <si>
@@ -89,9 +92,6 @@
   </si>
   <si>
     <t>Cd44</t>
-  </si>
-  <si>
-    <t>ECs</t>
   </si>
   <si>
     <t>M2</t>
@@ -452,7 +452,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T16"/>
+  <dimension ref="A1:T21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -525,61 +525,61 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D2" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F2">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G2">
-        <v>7.35363595225656</v>
+        <v>0.8896923333333334</v>
       </c>
       <c r="H2">
-        <v>7.35363595225656</v>
+        <v>2.669077</v>
       </c>
       <c r="I2">
-        <v>0.865759563744205</v>
+        <v>0.09326752961394506</v>
       </c>
       <c r="J2">
-        <v>0.865759563744205</v>
+        <v>0.09326752961394505</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>22.3412814097662</v>
+        <v>22.34478233333333</v>
       </c>
       <c r="N2">
-        <v>22.3412814097662</v>
+        <v>67.034347</v>
       </c>
       <c r="O2">
-        <v>0.03390557330535436</v>
+        <v>0.03165884810812076</v>
       </c>
       <c r="P2">
-        <v>0.03390557330535436</v>
+        <v>0.03165884810812076</v>
       </c>
       <c r="Q2">
-        <v>164.2896501943379</v>
+        <v>19.87998153196878</v>
       </c>
       <c r="R2">
-        <v>164.2896501943379</v>
+        <v>178.919833787719</v>
       </c>
       <c r="S2">
-        <v>0.02935407435334076</v>
+        <v>0.002952742553467542</v>
       </c>
       <c r="T2">
-        <v>0.02935407435334076</v>
+        <v>0.002952742553467541</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -587,61 +587,61 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D3" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F3">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G3">
-        <v>7.35363595225656</v>
+        <v>0.8896923333333334</v>
       </c>
       <c r="H3">
-        <v>7.35363595225656</v>
+        <v>2.669077</v>
       </c>
       <c r="I3">
-        <v>0.865759563744205</v>
+        <v>0.09326752961394506</v>
       </c>
       <c r="J3">
-        <v>0.865759563744205</v>
+        <v>0.09326752961394505</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>91.7205939642397</v>
+        <v>92.44713066666667</v>
       </c>
       <c r="N3">
-        <v>91.7205939642397</v>
+        <v>277.341392</v>
       </c>
       <c r="O3">
-        <v>0.1391969988304138</v>
+        <v>0.1309822411400946</v>
       </c>
       <c r="P3">
-        <v>0.1391969988304138</v>
+        <v>0.1309822411400946</v>
       </c>
       <c r="Q3">
-        <v>674.4798573377591</v>
+        <v>82.24950339279823</v>
       </c>
       <c r="R3">
-        <v>674.4798573377591</v>
+        <v>740.245530535184</v>
       </c>
       <c r="S3">
-        <v>0.1205111329819217</v>
+        <v>0.01221639005443467</v>
       </c>
       <c r="T3">
-        <v>0.1205111329819217</v>
+        <v>0.01221639005443467</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -649,61 +649,61 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C4" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D4" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F4">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G4">
-        <v>7.35363595225656</v>
+        <v>0.8896923333333334</v>
       </c>
       <c r="H4">
-        <v>7.35363595225656</v>
+        <v>2.669077</v>
       </c>
       <c r="I4">
-        <v>0.865759563744205</v>
+        <v>0.09326752961394506</v>
       </c>
       <c r="J4">
-        <v>0.865759563744205</v>
+        <v>0.09326752961394505</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>243.844013415007</v>
+        <v>243.96462</v>
       </c>
       <c r="N4">
-        <v>243.844013415007</v>
+        <v>731.89386</v>
       </c>
       <c r="O4">
-        <v>0.3700625277608395</v>
+        <v>0.3456573768818275</v>
       </c>
       <c r="P4">
-        <v>0.3700625277608395</v>
+        <v>0.3456573768818275</v>
       </c>
       <c r="Q4">
-        <v>1793.140103791126</v>
+        <v>217.05345201858</v>
       </c>
       <c r="R4">
-        <v>1793.140103791126</v>
+        <v>1953.48106816722</v>
       </c>
       <c r="S4">
-        <v>0.3203851725923022</v>
+        <v>0.03223860963460441</v>
       </c>
       <c r="T4">
-        <v>0.3203851725923022</v>
+        <v>0.03223860963460441</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -711,61 +711,61 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C5" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D5" t="s">
         <v>26</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F5">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G5">
-        <v>7.35363595225656</v>
+        <v>0.8896923333333334</v>
       </c>
       <c r="H5">
-        <v>7.35363595225656</v>
+        <v>2.669077</v>
       </c>
       <c r="I5">
-        <v>0.865759563744205</v>
+        <v>0.09326752961394506</v>
       </c>
       <c r="J5">
-        <v>0.865759563744205</v>
+        <v>0.09326752961394505</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>242.803187262864</v>
+        <v>281.5837096666667</v>
       </c>
       <c r="N5">
-        <v>242.803187262864</v>
+        <v>844.751129</v>
       </c>
       <c r="O5">
-        <v>0.3684829492777456</v>
+        <v>0.3989573834764815</v>
       </c>
       <c r="P5">
-        <v>0.3684829492777456</v>
+        <v>0.3989573834764815</v>
       </c>
       <c r="Q5">
-        <v>1785.486247178679</v>
+        <v>250.5228676819926</v>
       </c>
       <c r="R5">
-        <v>1785.486247178679</v>
+        <v>2254.705809137933</v>
       </c>
       <c r="S5">
-        <v>0.319017637413879</v>
+        <v>0.03720976957809478</v>
       </c>
       <c r="T5">
-        <v>0.319017637413879</v>
+        <v>0.03720976957809476</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -773,61 +773,61 @@
         <v>20</v>
       </c>
       <c r="B6" t="s">
+        <v>24</v>
+      </c>
+      <c r="C6" t="s">
+        <v>25</v>
+      </c>
+      <c r="D6" t="s">
         <v>23</v>
       </c>
-      <c r="C6" t="s">
-        <v>24</v>
-      </c>
-      <c r="D6" t="s">
-        <v>22</v>
-      </c>
       <c r="E6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F6">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G6">
-        <v>7.35363595225656</v>
+        <v>0.8896923333333334</v>
       </c>
       <c r="H6">
-        <v>7.35363595225656</v>
+        <v>2.669077</v>
       </c>
       <c r="I6">
-        <v>0.865759563744205</v>
+        <v>0.09326752961394506</v>
       </c>
       <c r="J6">
-        <v>0.865759563744205</v>
+        <v>0.09326752961394505</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>58.2174434486227</v>
+        <v>65.45872566666667</v>
       </c>
       <c r="N6">
-        <v>58.2174434486227</v>
+        <v>196.376177</v>
       </c>
       <c r="O6">
-        <v>0.08835195082564674</v>
+        <v>0.09274415039347572</v>
       </c>
       <c r="P6">
-        <v>0.08835195082564674</v>
+        <v>0.09274415039347571</v>
       </c>
       <c r="Q6">
-        <v>428.1098851922551</v>
+        <v>58.23812637540323</v>
       </c>
       <c r="R6">
-        <v>428.1098851922551</v>
+        <v>524.143137378629</v>
       </c>
       <c r="S6">
-        <v>0.07649154640276139</v>
+        <v>0.008650017793343671</v>
       </c>
       <c r="T6">
-        <v>0.07649154640276139</v>
+        <v>0.00865001779334367</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -835,61 +835,61 @@
         <v>21</v>
       </c>
       <c r="B7" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C7" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D7" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>0.277310786559931</v>
+        <v>7.418580000000001</v>
       </c>
       <c r="H7">
-        <v>0.277310786559931</v>
+        <v>22.25574</v>
       </c>
       <c r="I7">
-        <v>0.03264840238929902</v>
+        <v>0.777698766101638</v>
       </c>
       <c r="J7">
-        <v>0.03264840238929902</v>
+        <v>0.777698766101638</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>22.3412814097662</v>
+        <v>22.34478233333333</v>
       </c>
       <c r="N7">
-        <v>22.3412814097662</v>
+        <v>67.034347</v>
       </c>
       <c r="O7">
-        <v>0.03390557330535436</v>
+        <v>0.03165884810812076</v>
       </c>
       <c r="P7">
-        <v>0.03390557330535436</v>
+        <v>0.03165884810812076</v>
       </c>
       <c r="Q7">
-        <v>6.19547832049903</v>
+        <v>165.76655532242</v>
       </c>
       <c r="R7">
-        <v>6.19547832049903</v>
+        <v>1491.89899790178</v>
       </c>
       <c r="S7">
-        <v>0.001106962800513084</v>
+        <v>0.02462104710988469</v>
       </c>
       <c r="T7">
-        <v>0.001106962800513084</v>
+        <v>0.02462104710988469</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -897,61 +897,61 @@
         <v>21</v>
       </c>
       <c r="B8" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C8" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D8" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>0.277310786559931</v>
+        <v>7.418580000000001</v>
       </c>
       <c r="H8">
-        <v>0.277310786559931</v>
+        <v>22.25574</v>
       </c>
       <c r="I8">
-        <v>0.03264840238929902</v>
+        <v>0.777698766101638</v>
       </c>
       <c r="J8">
-        <v>0.03264840238929902</v>
+        <v>0.777698766101638</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>91.7205939642397</v>
+        <v>92.44713066666667</v>
       </c>
       <c r="N8">
-        <v>91.7205939642397</v>
+        <v>277.341392</v>
       </c>
       <c r="O8">
-        <v>0.1391969988304138</v>
+        <v>0.1309822411400946</v>
       </c>
       <c r="P8">
-        <v>0.1391969988304138</v>
+        <v>0.1309822411400946</v>
       </c>
       <c r="Q8">
-        <v>25.43511005596737</v>
+        <v>685.8264346211201</v>
       </c>
       <c r="R8">
-        <v>25.43511005596737</v>
+        <v>6172.43791159008</v>
       </c>
       <c r="S8">
-        <v>0.004544559629198136</v>
+        <v>0.1018647273158788</v>
       </c>
       <c r="T8">
-        <v>0.004544559629198136</v>
+        <v>0.1018647273158788</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -959,61 +959,61 @@
         <v>21</v>
       </c>
       <c r="B9" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C9" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D9" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>0.277310786559931</v>
+        <v>7.418580000000001</v>
       </c>
       <c r="H9">
-        <v>0.277310786559931</v>
+        <v>22.25574</v>
       </c>
       <c r="I9">
-        <v>0.03264840238929902</v>
+        <v>0.777698766101638</v>
       </c>
       <c r="J9">
-        <v>0.03264840238929902</v>
+        <v>0.777698766101638</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>243.844013415007</v>
+        <v>243.96462</v>
       </c>
       <c r="N9">
-        <v>243.844013415007</v>
+        <v>731.89386</v>
       </c>
       <c r="O9">
-        <v>0.3700625277608395</v>
+        <v>0.3456573768818275</v>
       </c>
       <c r="P9">
-        <v>0.3700625277608395</v>
+        <v>0.3456573768818275</v>
       </c>
       <c r="Q9">
-        <v>67.62057515804597</v>
+        <v>1809.8710506396</v>
       </c>
       <c r="R9">
-        <v>67.62057515804597</v>
+        <v>16288.8394557564</v>
       </c>
       <c r="S9">
-        <v>0.01208195031553703</v>
+        <v>0.2688173154949261</v>
       </c>
       <c r="T9">
-        <v>0.01208195031553703</v>
+        <v>0.2688173154949261</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1021,61 +1021,61 @@
         <v>21</v>
       </c>
       <c r="B10" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C10" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D10" t="s">
         <v>26</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>0.277310786559931</v>
+        <v>7.418580000000001</v>
       </c>
       <c r="H10">
-        <v>0.277310786559931</v>
+        <v>22.25574</v>
       </c>
       <c r="I10">
-        <v>0.03264840238929902</v>
+        <v>0.777698766101638</v>
       </c>
       <c r="J10">
-        <v>0.03264840238929902</v>
+        <v>0.777698766101638</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>242.803187262864</v>
+        <v>281.5837096666667</v>
       </c>
       <c r="N10">
-        <v>242.803187262864</v>
+        <v>844.751129</v>
       </c>
       <c r="O10">
-        <v>0.3684829492777456</v>
+        <v>0.3989573834764815</v>
       </c>
       <c r="P10">
-        <v>0.3684829492777456</v>
+        <v>0.3989573834764815</v>
       </c>
       <c r="Q10">
-        <v>67.33194283912303</v>
+        <v>2088.95127685894</v>
       </c>
       <c r="R10">
-        <v>67.33194283912303</v>
+        <v>18800.56149173046</v>
       </c>
       <c r="S10">
-        <v>0.0120303796016155</v>
+        <v>0.3102686648567977</v>
       </c>
       <c r="T10">
-        <v>0.0120303796016155</v>
+        <v>0.3102686648567977</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1083,61 +1083,61 @@
         <v>21</v>
       </c>
       <c r="B11" t="s">
+        <v>24</v>
+      </c>
+      <c r="C11" t="s">
+        <v>25</v>
+      </c>
+      <c r="D11" t="s">
         <v>23</v>
       </c>
-      <c r="C11" t="s">
-        <v>24</v>
-      </c>
-      <c r="D11" t="s">
-        <v>22</v>
-      </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>0.277310786559931</v>
+        <v>7.418580000000001</v>
       </c>
       <c r="H11">
-        <v>0.277310786559931</v>
+        <v>22.25574</v>
       </c>
       <c r="I11">
-        <v>0.03264840238929902</v>
+        <v>0.777698766101638</v>
       </c>
       <c r="J11">
-        <v>0.03264840238929902</v>
+        <v>0.777698766101638</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>58.2174434486227</v>
+        <v>65.45872566666667</v>
       </c>
       <c r="N11">
-        <v>58.2174434486227</v>
+        <v>196.376177</v>
       </c>
       <c r="O11">
-        <v>0.08835195082564674</v>
+        <v>0.09274415039347572</v>
       </c>
       <c r="P11">
-        <v>0.08835195082564674</v>
+        <v>0.09274415039347571</v>
       </c>
       <c r="Q11">
-        <v>16.14432503424586</v>
+        <v>485.6107930562201</v>
       </c>
       <c r="R11">
-        <v>16.14432503424586</v>
+        <v>4370.497137505981</v>
       </c>
       <c r="S11">
-        <v>0.002884550042435275</v>
+        <v>0.07212701132415081</v>
       </c>
       <c r="T11">
-        <v>0.002884550042435275</v>
+        <v>0.07212701132415081</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1145,61 +1145,61 @@
         <v>22</v>
       </c>
       <c r="B12" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C12" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D12" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>0.862907975827176</v>
+        <v>0.298413</v>
       </c>
       <c r="H12">
-        <v>0.862907975827176</v>
+        <v>0.895239</v>
       </c>
       <c r="I12">
-        <v>0.101592033866496</v>
+        <v>0.031282997809377</v>
       </c>
       <c r="J12">
-        <v>0.101592033866496</v>
+        <v>0.03128299780937701</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>22.3412814097662</v>
+        <v>22.34478233333333</v>
       </c>
       <c r="N12">
-        <v>22.3412814097662</v>
+        <v>67.034347</v>
       </c>
       <c r="O12">
-        <v>0.03390557330535436</v>
+        <v>0.03165884810812076</v>
       </c>
       <c r="P12">
-        <v>0.03390557330535436</v>
+        <v>0.03165884810812076</v>
       </c>
       <c r="Q12">
-        <v>19.27846991868667</v>
+        <v>6.667973530436999</v>
       </c>
       <c r="R12">
-        <v>19.27846991868667</v>
+        <v>60.011761773933</v>
       </c>
       <c r="S12">
-        <v>0.003444536151500522</v>
+        <v>0.0009903836760137409</v>
       </c>
       <c r="T12">
-        <v>0.003444536151500522</v>
+        <v>0.0009903836760137411</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1207,61 +1207,61 @@
         <v>22</v>
       </c>
       <c r="B13" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C13" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D13" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
       <c r="G13">
-        <v>0.862907975827176</v>
+        <v>0.298413</v>
       </c>
       <c r="H13">
-        <v>0.862907975827176</v>
+        <v>0.895239</v>
       </c>
       <c r="I13">
-        <v>0.101592033866496</v>
+        <v>0.031282997809377</v>
       </c>
       <c r="J13">
-        <v>0.101592033866496</v>
+        <v>0.03128299780937701</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>91.7205939642397</v>
+        <v>92.44713066666667</v>
       </c>
       <c r="N13">
-        <v>91.7205939642397</v>
+        <v>277.341392</v>
       </c>
       <c r="O13">
-        <v>0.1391969988304138</v>
+        <v>0.1309822411400946</v>
       </c>
       <c r="P13">
-        <v>0.1391969988304138</v>
+        <v>0.1309822411400946</v>
       </c>
       <c r="Q13">
-        <v>79.14643207934837</v>
+        <v>27.587425603632</v>
       </c>
       <c r="R13">
-        <v>79.14643207934837</v>
+        <v>248.286830432688</v>
       </c>
       <c r="S13">
-        <v>0.014141306219294</v>
+        <v>0.004097517162652871</v>
       </c>
       <c r="T13">
-        <v>0.014141306219294</v>
+        <v>0.004097517162652871</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1269,61 +1269,61 @@
         <v>22</v>
       </c>
       <c r="B14" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C14" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D14" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F14">
         <v>1</v>
       </c>
       <c r="G14">
-        <v>0.862907975827176</v>
+        <v>0.298413</v>
       </c>
       <c r="H14">
-        <v>0.862907975827176</v>
+        <v>0.895239</v>
       </c>
       <c r="I14">
-        <v>0.101592033866496</v>
+        <v>0.031282997809377</v>
       </c>
       <c r="J14">
-        <v>0.101592033866496</v>
+        <v>0.03128299780937701</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L14">
         <v>1</v>
       </c>
       <c r="M14">
-        <v>243.844013415007</v>
+        <v>243.96462</v>
       </c>
       <c r="N14">
-        <v>243.844013415007</v>
+        <v>731.89386</v>
       </c>
       <c r="O14">
-        <v>0.3700625277608395</v>
+        <v>0.3456573768818275</v>
       </c>
       <c r="P14">
-        <v>0.3700625277608395</v>
+        <v>0.3456573768818275</v>
       </c>
       <c r="Q14">
-        <v>210.4149440335185</v>
+        <v>72.80221414805999</v>
       </c>
       <c r="R14">
-        <v>210.4149440335185</v>
+        <v>655.21992733254</v>
       </c>
       <c r="S14">
-        <v>0.03759540485300032</v>
+        <v>0.01081319896378921</v>
       </c>
       <c r="T14">
-        <v>0.03759540485300032</v>
+        <v>0.01081319896378921</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1331,61 +1331,61 @@
         <v>22</v>
       </c>
       <c r="B15" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C15" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D15" t="s">
         <v>26</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F15">
         <v>1</v>
       </c>
       <c r="G15">
-        <v>0.862907975827176</v>
+        <v>0.298413</v>
       </c>
       <c r="H15">
-        <v>0.862907975827176</v>
+        <v>0.895239</v>
       </c>
       <c r="I15">
-        <v>0.101592033866496</v>
+        <v>0.031282997809377</v>
       </c>
       <c r="J15">
-        <v>0.101592033866496</v>
+        <v>0.03128299780937701</v>
       </c>
       <c r="K15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L15">
         <v>1</v>
       </c>
       <c r="M15">
-        <v>242.803187262864</v>
+        <v>281.5837096666667</v>
       </c>
       <c r="N15">
-        <v>242.803187262864</v>
+        <v>844.751129</v>
       </c>
       <c r="O15">
-        <v>0.3684829492777456</v>
+        <v>0.3989573834764815</v>
       </c>
       <c r="P15">
-        <v>0.3684829492777456</v>
+        <v>0.3989573834764815</v>
       </c>
       <c r="Q15">
-        <v>209.5168068453847</v>
+        <v>84.02823955275899</v>
       </c>
       <c r="R15">
-        <v>209.5168068453847</v>
+        <v>756.254155974831</v>
       </c>
       <c r="S15">
-        <v>0.03743493226225105</v>
+        <v>0.01248058295332955</v>
       </c>
       <c r="T15">
-        <v>0.03743493226225105</v>
+        <v>0.01248058295332955</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1393,61 +1393,371 @@
         <v>22</v>
       </c>
       <c r="B16" t="s">
+        <v>24</v>
+      </c>
+      <c r="C16" t="s">
+        <v>25</v>
+      </c>
+      <c r="D16" t="s">
         <v>23</v>
       </c>
-      <c r="C16" t="s">
-        <v>24</v>
-      </c>
-      <c r="D16" t="s">
+      <c r="E16">
+        <v>3</v>
+      </c>
+      <c r="F16">
+        <v>1</v>
+      </c>
+      <c r="G16">
+        <v>0.298413</v>
+      </c>
+      <c r="H16">
+        <v>0.895239</v>
+      </c>
+      <c r="I16">
+        <v>0.031282997809377</v>
+      </c>
+      <c r="J16">
+        <v>0.03128299780937701</v>
+      </c>
+      <c r="K16">
+        <v>3</v>
+      </c>
+      <c r="L16">
+        <v>1</v>
+      </c>
+      <c r="M16">
+        <v>65.45872566666667</v>
+      </c>
+      <c r="N16">
+        <v>196.376177</v>
+      </c>
+      <c r="O16">
+        <v>0.09274415039347572</v>
+      </c>
+      <c r="P16">
+        <v>0.09274415039347571</v>
+      </c>
+      <c r="Q16">
+        <v>19.533734702367</v>
+      </c>
+      <c r="R16">
+        <v>175.803612321303</v>
+      </c>
+      <c r="S16">
+        <v>0.002901315053591632</v>
+      </c>
+      <c r="T16">
+        <v>0.002901315053591633</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
+      <c r="A17" t="s">
+        <v>23</v>
+      </c>
+      <c r="B17" t="s">
+        <v>24</v>
+      </c>
+      <c r="C17" t="s">
+        <v>25</v>
+      </c>
+      <c r="D17" t="s">
+        <v>20</v>
+      </c>
+      <c r="E17">
+        <v>3</v>
+      </c>
+      <c r="F17">
+        <v>1</v>
+      </c>
+      <c r="G17">
+        <v>0.9324580000000001</v>
+      </c>
+      <c r="H17">
+        <v>2.797374</v>
+      </c>
+      <c r="I17">
+        <v>0.09775070647503986</v>
+      </c>
+      <c r="J17">
+        <v>0.09775070647503986</v>
+      </c>
+      <c r="K17">
+        <v>3</v>
+      </c>
+      <c r="L17">
+        <v>1</v>
+      </c>
+      <c r="M17">
+        <v>22.34478233333333</v>
+      </c>
+      <c r="N17">
+        <v>67.034347</v>
+      </c>
+      <c r="O17">
+        <v>0.03165884810812076</v>
+      </c>
+      <c r="P17">
+        <v>0.03165884810812076</v>
+      </c>
+      <c r="Q17">
+        <v>20.83557104497534</v>
+      </c>
+      <c r="R17">
+        <v>187.520139404778</v>
+      </c>
+      <c r="S17">
+        <v>0.003094674768754783</v>
+      </c>
+      <c r="T17">
+        <v>0.003094674768754783</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20">
+      <c r="A18" t="s">
+        <v>23</v>
+      </c>
+      <c r="B18" t="s">
+        <v>24</v>
+      </c>
+      <c r="C18" t="s">
+        <v>25</v>
+      </c>
+      <c r="D18" t="s">
+        <v>21</v>
+      </c>
+      <c r="E18">
+        <v>3</v>
+      </c>
+      <c r="F18">
+        <v>1</v>
+      </c>
+      <c r="G18">
+        <v>0.9324580000000001</v>
+      </c>
+      <c r="H18">
+        <v>2.797374</v>
+      </c>
+      <c r="I18">
+        <v>0.09775070647503986</v>
+      </c>
+      <c r="J18">
+        <v>0.09775070647503986</v>
+      </c>
+      <c r="K18">
+        <v>3</v>
+      </c>
+      <c r="L18">
+        <v>1</v>
+      </c>
+      <c r="M18">
+        <v>92.44713066666667</v>
+      </c>
+      <c r="N18">
+        <v>277.341392</v>
+      </c>
+      <c r="O18">
+        <v>0.1309822411400946</v>
+      </c>
+      <c r="P18">
+        <v>0.1309822411400946</v>
+      </c>
+      <c r="Q18">
+        <v>86.20306656717868</v>
+      </c>
+      <c r="R18">
+        <v>775.8275991046081</v>
+      </c>
+      <c r="S18">
+        <v>0.01280360660712828</v>
+      </c>
+      <c r="T18">
+        <v>0.01280360660712828</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20">
+      <c r="A19" t="s">
+        <v>23</v>
+      </c>
+      <c r="B19" t="s">
+        <v>24</v>
+      </c>
+      <c r="C19" t="s">
+        <v>25</v>
+      </c>
+      <c r="D19" t="s">
         <v>22</v>
       </c>
-      <c r="E16">
-        <v>1</v>
-      </c>
-      <c r="F16">
-        <v>1</v>
-      </c>
-      <c r="G16">
-        <v>0.862907975827176</v>
-      </c>
-      <c r="H16">
-        <v>0.862907975827176</v>
-      </c>
-      <c r="I16">
-        <v>0.101592033866496</v>
-      </c>
-      <c r="J16">
-        <v>0.101592033866496</v>
-      </c>
-      <c r="K16">
-        <v>1</v>
-      </c>
-      <c r="L16">
-        <v>1</v>
-      </c>
-      <c r="M16">
-        <v>58.2174434486227</v>
-      </c>
-      <c r="N16">
-        <v>58.2174434486227</v>
-      </c>
-      <c r="O16">
-        <v>0.08835195082564674</v>
-      </c>
-      <c r="P16">
-        <v>0.08835195082564674</v>
-      </c>
-      <c r="Q16">
-        <v>50.2362962840841</v>
-      </c>
-      <c r="R16">
-        <v>50.2362962840841</v>
-      </c>
-      <c r="S16">
-        <v>0.008975854380450092</v>
-      </c>
-      <c r="T16">
-        <v>0.008975854380450092</v>
+      <c r="E19">
+        <v>3</v>
+      </c>
+      <c r="F19">
+        <v>1</v>
+      </c>
+      <c r="G19">
+        <v>0.9324580000000001</v>
+      </c>
+      <c r="H19">
+        <v>2.797374</v>
+      </c>
+      <c r="I19">
+        <v>0.09775070647503986</v>
+      </c>
+      <c r="J19">
+        <v>0.09775070647503986</v>
+      </c>
+      <c r="K19">
+        <v>3</v>
+      </c>
+      <c r="L19">
+        <v>1</v>
+      </c>
+      <c r="M19">
+        <v>243.96462</v>
+      </c>
+      <c r="N19">
+        <v>731.89386</v>
+      </c>
+      <c r="O19">
+        <v>0.3456573768818275</v>
+      </c>
+      <c r="P19">
+        <v>0.3456573768818275</v>
+      </c>
+      <c r="Q19">
+        <v>227.48676163596</v>
+      </c>
+      <c r="R19">
+        <v>2047.38085472364</v>
+      </c>
+      <c r="S19">
+        <v>0.03378825278850774</v>
+      </c>
+      <c r="T19">
+        <v>0.03378825278850774</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20">
+      <c r="A20" t="s">
+        <v>23</v>
+      </c>
+      <c r="B20" t="s">
+        <v>24</v>
+      </c>
+      <c r="C20" t="s">
+        <v>25</v>
+      </c>
+      <c r="D20" t="s">
+        <v>26</v>
+      </c>
+      <c r="E20">
+        <v>3</v>
+      </c>
+      <c r="F20">
+        <v>1</v>
+      </c>
+      <c r="G20">
+        <v>0.9324580000000001</v>
+      </c>
+      <c r="H20">
+        <v>2.797374</v>
+      </c>
+      <c r="I20">
+        <v>0.09775070647503986</v>
+      </c>
+      <c r="J20">
+        <v>0.09775070647503986</v>
+      </c>
+      <c r="K20">
+        <v>3</v>
+      </c>
+      <c r="L20">
+        <v>1</v>
+      </c>
+      <c r="M20">
+        <v>281.5837096666667</v>
+      </c>
+      <c r="N20">
+        <v>844.751129</v>
+      </c>
+      <c r="O20">
+        <v>0.3989573834764815</v>
+      </c>
+      <c r="P20">
+        <v>0.3989573834764815</v>
+      </c>
+      <c r="Q20">
+        <v>262.5649827483607</v>
+      </c>
+      <c r="R20">
+        <v>2363.084844735246</v>
+      </c>
+      <c r="S20">
+        <v>0.03899836608825946</v>
+      </c>
+      <c r="T20">
+        <v>0.03899836608825945</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20">
+      <c r="A21" t="s">
+        <v>23</v>
+      </c>
+      <c r="B21" t="s">
+        <v>24</v>
+      </c>
+      <c r="C21" t="s">
+        <v>25</v>
+      </c>
+      <c r="D21" t="s">
+        <v>23</v>
+      </c>
+      <c r="E21">
+        <v>3</v>
+      </c>
+      <c r="F21">
+        <v>1</v>
+      </c>
+      <c r="G21">
+        <v>0.9324580000000001</v>
+      </c>
+      <c r="H21">
+        <v>2.797374</v>
+      </c>
+      <c r="I21">
+        <v>0.09775070647503986</v>
+      </c>
+      <c r="J21">
+        <v>0.09775070647503986</v>
+      </c>
+      <c r="K21">
+        <v>3</v>
+      </c>
+      <c r="L21">
+        <v>1</v>
+      </c>
+      <c r="M21">
+        <v>65.45872566666667</v>
+      </c>
+      <c r="N21">
+        <v>196.376177</v>
+      </c>
+      <c r="O21">
+        <v>0.09274415039347572</v>
+      </c>
+      <c r="P21">
+        <v>0.09274415039347571</v>
+      </c>
+      <c r="Q21">
+        <v>61.03751241768867</v>
+      </c>
+      <c r="R21">
+        <v>549.3376117591981</v>
+      </c>
+      <c r="S21">
+        <v>0.009065806222389597</v>
+      </c>
+      <c r="T21">
+        <v>0.009065806222389597</v>
       </c>
     </row>
   </sheetData>
